--- a/ig/branch/dev/ValueSet-phenotypic-component.xlsx
+++ b/ig/branch/dev/ValueSet-phenotypic-component.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T18:47:37+00:00</t>
+    <t>2023-12-04T18:14:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -239,10 +239,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
